--- a/ResultadoEleicoesDistritos/VISEU_MORTÁGUA.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_MORTÁGUA.xlsx
@@ -597,25 +597,25 @@
         <v>2475</v>
       </c>
       <c r="H2" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="J2" t="n">
-        <v>1050</v>
+        <v>992</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -624,37 +624,37 @@
         <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="T2" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>1540</v>
+        <v>1609</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1628</v>
+        <v>1590</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
